--- a/Test Report.xlsx
+++ b/Test Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{B963FB81-6EE7-4CD4-AE84-02A5BE05AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C2F65A1-17AD-4B9E-BCA1-5A8AE3D3B531}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{B963FB81-6EE7-4CD4-AE84-02A5BE05AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D99066-BB61-495C-B40F-0883204ED220}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{3DFCF386-133D-41A2-9780-A72324A25746}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DFCF386-133D-41A2-9780-A72324A25746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,112 +673,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1101,6 +1101,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3FA9C7-7E5E-4377-A0C5-EEF7316063CA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
@@ -1118,19 +1121,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1150,7 +1153,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="55" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1158,379 +1161,353 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="30">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="32">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="32">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="30">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="27">
         <v>1</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="21">
         <v>0</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="27">
         <v>1</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="27">
         <v>1</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="27">
         <v>1</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="27">
         <v>1</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="21">
         <v>0</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="27">
         <v>1</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="27">
         <v>1</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="21">
         <v>0</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="27">
         <v>1</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="27">
         <v>1</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="21">
         <v>0</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="27"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="38"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D13"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
@@ -1544,18 +1521,44 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="57" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Report.xlsx
+++ b/Test Report.xlsx
@@ -688,69 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -780,6 +717,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,19 +1121,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1178,296 +1178,296 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="50">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="50">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="48">
         <v>1</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="48">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="50">
         <v>0</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="48">
         <v>1</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="48">
         <v>1</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="50">
         <v>0</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="48">
         <v>1</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="48">
         <v>1</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="50">
         <v>0</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="48">
         <v>1</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="48">
         <v>1</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="50">
         <v>0</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="48">
         <v>1</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="48">
         <v>1</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="50">
         <v>0</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="48">
         <v>1</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="48">
         <v>1</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="50">
         <v>0</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -1498,29 +1498,26 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -1537,26 +1534,29 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
